--- a/docs/ranks.xlsx
+++ b/docs/ranks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silly/projects/am-masteserver/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silly/projects/The8Balls/Assets/Design/Documents/DataTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1E068-50AF-6946-BAAD-4E0039488CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8B0F5-078E-6E47-AD0E-58BD81C097F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3320" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="3160" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -308,14 +308,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>准将</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>少将</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>新秀三级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -353,6 +345,162 @@
   </si>
   <si>
     <t>RankNext</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金四星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英四级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级军士长</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金五星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗五级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大尉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡大师五</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准校</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将一星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡大师四</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡大师三</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡大师二</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡大师一</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将二星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将三星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将四星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将五星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者五</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者四</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者三</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者二</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者一</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中将</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师五级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师四级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师三级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师二级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡五级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡四级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡三级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡二级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将一星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将二星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将三星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将四星</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将五星</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -554,8 +702,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +930,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC1C4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,23 +1236,17 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1442,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1454,7 +1622,9 @@
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1495,7 +1665,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>3</v>
@@ -1582,11 +1752,11 @@
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1603,7 +1773,7 @@
       <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="3">
         <v>1001</v>
       </c>
       <c r="L5" s="3"/>
@@ -1615,11 +1785,11 @@
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1636,7 +1806,7 @@
       <c r="J6" s="3">
         <v>3</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="3">
         <v>1002</v>
       </c>
       <c r="L6" s="3"/>
@@ -1648,11 +1818,11 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1669,7 +1839,7 @@
       <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="3">
         <v>1100</v>
       </c>
       <c r="L7" s="3"/>
@@ -1681,11 +1851,11 @@
         <v>1100</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
@@ -1694,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>60</v>
@@ -1702,7 +1872,7 @@
       <c r="J8" s="5">
         <v>3</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="5">
         <v>1101</v>
       </c>
       <c r="L8" s="5"/>
@@ -1714,11 +1884,11 @@
         <v>1101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
@@ -1727,7 +1897,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>61</v>
@@ -1735,7 +1905,7 @@
       <c r="J9" s="5">
         <v>3</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="5">
         <v>1102</v>
       </c>
       <c r="L9" s="5"/>
@@ -1747,11 +1917,11 @@
         <v>1102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
@@ -1760,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>62</v>
@@ -1768,7 +1938,7 @@
       <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="5">
         <v>1200</v>
       </c>
       <c r="L10" s="5"/>
@@ -1777,23 +1947,23 @@
     <row r="11" spans="1:13" ht="17">
       <c r="A11" s="7"/>
       <c r="B11" s="7">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>65</v>
@@ -1801,7 +1971,7 @@
       <c r="J11" s="7">
         <v>4</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="7">
         <v>1201</v>
       </c>
       <c r="L11" s="7"/>
@@ -1810,23 +1980,23 @@
     <row r="12" spans="1:13" ht="17">
       <c r="A12" s="7"/>
       <c r="B12" s="7">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>64</v>
@@ -1834,7 +2004,7 @@
       <c r="J12" s="7">
         <v>4</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="7">
         <v>1202</v>
       </c>
       <c r="L12" s="7"/>
@@ -1843,23 +2013,23 @@
     <row r="13" spans="1:13" ht="17">
       <c r="A13" s="7"/>
       <c r="B13" s="7">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>63</v>
@@ -1867,74 +2037,74 @@
       <c r="J13" s="7">
         <v>4</v>
       </c>
-      <c r="K13" s="17">
-        <v>1300</v>
+      <c r="K13" s="7">
+        <v>1203</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="17">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
+        <v>1203</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7">
         <v>1300</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="13">
-        <v>4</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="13">
-        <v>5</v>
-      </c>
-      <c r="K14" s="18">
-        <v>1301</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="17">
       <c r="A15" s="13"/>
       <c r="B15" s="13">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="13">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J15" s="13">
         <v>5</v>
       </c>
-      <c r="K15" s="18">
-        <v>1302</v>
+      <c r="K15" s="13">
+        <v>1301</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1942,32 +2112,32 @@
     <row r="16" spans="1:13" ht="17">
       <c r="A16" s="13"/>
       <c r="B16" s="13">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="13">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="13">
         <v>5</v>
       </c>
-      <c r="K16" s="18">
-        <v>1303</v>
+      <c r="K16" s="13">
+        <v>1302</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1975,131 +2145,131 @@
     <row r="17" spans="1:13" ht="17">
       <c r="A17" s="13"/>
       <c r="B17" s="13">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="13">
         <v>4</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="13">
         <v>5</v>
       </c>
-      <c r="K17" s="18">
-        <v>1400</v>
+      <c r="K17" s="13">
+        <v>1303</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="17">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13">
+        <v>1303</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="13">
+        <v>5</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1304</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="17">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13">
+        <v>1304</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="13">
+        <v>4</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="13">
+        <v>5</v>
+      </c>
+      <c r="K19" s="13">
         <v>1400</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="9">
-        <v>5</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="9">
-        <v>6</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1401</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" ht="17">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9">
-        <v>1401</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="9">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="9">
-        <v>6</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1402</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="17">
       <c r="A20" s="9"/>
       <c r="B20" s="9">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="9">
         <v>5</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J20" s="9">
         <v>6</v>
       </c>
-      <c r="K20" s="19">
-        <v>1403</v>
+      <c r="K20" s="9">
+        <v>1401</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -2107,32 +2277,32 @@
     <row r="21" spans="1:13" ht="17">
       <c r="A21" s="9"/>
       <c r="B21" s="9">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="9">
         <v>5</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J21" s="9">
         <v>6</v>
       </c>
-      <c r="K21" s="19">
-        <v>1404</v>
+      <c r="K21" s="9">
+        <v>1402</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -2140,68 +2310,444 @@
     <row r="22" spans="1:13" ht="17">
       <c r="A22" s="9"/>
       <c r="B22" s="9">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9">
         <v>5</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J22" s="9">
         <v>6</v>
       </c>
-      <c r="K22" s="19">
-        <v>2000</v>
+      <c r="K22" s="9">
+        <v>1403</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="17">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9">
+        <v>1403</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="9">
+        <v>6</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1404</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" ht="17">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
+        <v>1404</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="9">
+        <v>6</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1500</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" ht="17">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15">
+        <v>6</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="15">
+        <v>6</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1501</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="17">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15">
+        <v>1501</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
+        <v>6</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="15">
+        <v>6</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1502</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" ht="17">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15">
+        <v>1502</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15">
+        <v>6</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="15">
+        <v>6</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1503</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" ht="17">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15">
+        <v>1503</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15">
+        <v>6</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="15">
+        <v>6</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1504</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" ht="17">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15">
+        <v>1504</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15">
+        <v>6</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="15">
+        <v>6</v>
+      </c>
+      <c r="K29" s="15">
+        <v>1900</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" ht="17">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11">
+        <v>1900</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="11">
+        <v>7</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="11">
+        <v>6</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1901</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" ht="17">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11">
+        <v>1901</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="11">
+        <v>7</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="11">
+        <v>6</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1902</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" ht="17">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11">
+        <v>1902</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="11">
+        <v>7</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="11">
+        <v>6</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1903</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" ht="17">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11">
+        <v>1903</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="11">
+        <v>7</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="11">
+        <v>6</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1904</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="17">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11">
+        <v>1904</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="11">
+        <v>7</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="11">
+        <v>6</v>
+      </c>
+      <c r="K34" s="11">
         <v>2000</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="11">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" ht="17">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="17">
+        <v>8</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="I35" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="17">
         <v>0</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K35" s="17">
         <v>0</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
